--- a/tests/testing_files/silent_test.xlsx
+++ b/tests/testing_files/silent_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\tests\testing_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B121DD1-A465-4265-8EAC-506A85DABA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CE79CC-E2D3-4DAA-85A6-763E056FCBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="2820" windowWidth="23565" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
+    <workbookView xWindow="4155" yWindow="2340" windowWidth="23640" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
   </bookViews>
   <sheets>
     <sheet name="#convert" sheetId="6" r:id="rId1"/>
@@ -251,9 +251,6 @@
     <t>IC-FTMS_measurement</t>
   </si>
   <si>
-    <t>#unique=false</t>
-  </si>
-  <si>
     <t>#measurement.id.regex</t>
   </si>
   <si>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t>r'asdf',r'asdf'</t>
+  </si>
+  <si>
+    <t>#match=all</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -654,10 +654,10 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -665,15 +665,15 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
         <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testing_files/silent_test.xlsx
+++ b/tests/testing_files/silent_test.xlsx
@@ -1,184 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\tests\testing_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CE79CC-E2D3-4DAA-85A6-763E056FCBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C266011-CD07-4D1F-A0C5-A78B16E2BB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="2340" windowWidth="23640" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
+    <workbookView xWindow="4260" yWindow="3285" windowWidth="23640" windowHeight="12015" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#convert" sheetId="6" r:id="rId1"/>
-    <sheet name="#tagging" sheetId="4" r:id="rId2"/>
-    <sheet name="#export" sheetId="8" r:id="rId3"/>
+    <sheet name="#modify" sheetId="1" r:id="rId1"/>
+    <sheet name="#automate" sheetId="2" r:id="rId2"/>
+    <sheet name="#export" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="all_samples">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>C5H8O4</t>
+    <t>#tags</t>
+  </si>
+  <si>
+    <t>#measurement.compound.value</t>
+  </si>
+  <si>
+    <t>#measurement.id.regex</t>
+  </si>
+  <si>
+    <t>#match=all</t>
   </si>
   <si>
     <t>(S)-2-Acetolactate_Glutaric acid_Methylsuccinic acid_MP_NoStd</t>
   </si>
   <si>
-    <t>01_A0_Colon_T03-2017_naive_170427_UKy_GCB_rep1-quench</t>
-  </si>
-  <si>
-    <t>Compound: name of assigned metabolite, noStd means assigment was NOT verified with standard compound</t>
-  </si>
-  <si>
-    <t>Legend</t>
-  </si>
-  <si>
-    <t>Compound</t>
-  </si>
-  <si>
-    <t>Mol_Formula</t>
-  </si>
-  <si>
-    <t>C_isomers</t>
-  </si>
-  <si>
-    <t>SamplID</t>
-  </si>
-  <si>
-    <t>Intensity</t>
-  </si>
-  <si>
-    <t>Renormalized</t>
-  </si>
-  <si>
-    <t>Total.NA.Removed</t>
-  </si>
-  <si>
-    <t>Corrected</t>
-  </si>
-  <si>
-    <t>Predicted</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Quantified_uM_ratio</t>
-  </si>
-  <si>
-    <t>Quantified_uM_sequence_ratio</t>
-  </si>
-  <si>
-    <t>reconstitution_volume_uL</t>
-  </si>
-  <si>
-    <t>injection_volume_uL</t>
-  </si>
-  <si>
-    <t>protein_mg</t>
-  </si>
-  <si>
-    <t>icms_split_ratio</t>
-  </si>
-  <si>
-    <t>Amount_ProteinAdj_uMol_g_protein_RatioBased</t>
-  </si>
-  <si>
-    <t>Amount_ProteinAdj_uMol_g_protein_SequenceBased</t>
-  </si>
-  <si>
-    <t>CommentQuantification</t>
-  </si>
-  <si>
-    <t>#tags</t>
-  </si>
-  <si>
-    <t>#measurement.compound.value</t>
-  </si>
-  <si>
-    <t>#header</t>
-  </si>
-  <si>
-    <t>#tag.add</t>
-  </si>
-  <si>
-    <t>#sample.id</t>
-  </si>
-  <si>
-    <t>#measurement.id</t>
-  </si>
-  <si>
-    <t>#measurement.assignment</t>
-  </si>
-  <si>
-    <t>#measurement.compound</t>
-  </si>
-  <si>
-    <t>#measurement.formula</t>
-  </si>
-  <si>
-    <t>#measurement.isotopologue;#%type="13C"</t>
-  </si>
-  <si>
-    <t>#measurement.raw_intensity;#%type="spectrometer peak area"</t>
-  </si>
-  <si>
-    <t>#measurement.corrected_raw_intensity;#%type="natural abundance corrected peak area"</t>
-  </si>
-  <si>
-    <t>#measurement.concentration;#%units=uM;#%type="calculated from standard"</t>
-  </si>
-  <si>
-    <t>Compound+"-13C"+C_isomers+"-"+SamplID</t>
-  </si>
-  <si>
-    <t>Compound+"-13C"+C_isomers</t>
-  </si>
-  <si>
-    <t>"13C"+C_isomers</t>
+    <t>r'\(S\)-2-Acetolactate_Glutaric acid_Methylsuccinic acid_MP_NoStd',r'(S)-2-Acetolactate Glutaric acid Methylsuccinic acid'</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>r'asdf',r'asdf'</t>
   </si>
   <si>
     <t>#insert</t>
-  </si>
-  <si>
-    <t>#end</t>
-  </si>
-  <si>
-    <t>#protocol.id=ICMS1</t>
-  </si>
-  <si>
-    <t>#measurement.normalized_concentration;#%type="protein normalized";#%units="uMol/g"</t>
-  </si>
-  <si>
-    <t>eval(float(#Renormalized#) / float(#protein_mg#))</t>
-  </si>
-  <si>
-    <t>#measurement.intensity;#%type="natural abundance corrected and protein normalized peak area";#%units="area/g"</t>
   </si>
   <si>
     <t>#protocol.id</t>
@@ -251,35 +124,142 @@
     <t>IC-FTMS_measurement</t>
   </si>
   <si>
-    <t>#measurement.id.regex</t>
-  </si>
-  <si>
-    <t>r'\(S\)-2-Acetolactate_Glutaric acid_Methylsuccinic acid_MP_NoStd',r'(S)-2-Acetolactate Glutaric acid Methylsuccinic acid'</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>r'asdf',r'asdf'</t>
-  </si>
-  <si>
-    <t>#match=all</t>
+    <t>#end</t>
+  </si>
+  <si>
+    <t>#header</t>
+  </si>
+  <si>
+    <t>Compound+"-13C"+C_isomers+"-"+SamplID</t>
+  </si>
+  <si>
+    <t>#measurement.id</t>
+  </si>
+  <si>
+    <t>Compound+"-13C"+C_isomers</t>
+  </si>
+  <si>
+    <t>#measurement.assignment</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>#measurement.compound</t>
+  </si>
+  <si>
+    <t>Mol_Formula</t>
+  </si>
+  <si>
+    <t>#measurement.formula</t>
+  </si>
+  <si>
+    <t>SamplID</t>
+  </si>
+  <si>
+    <t>"13C"+C_isomers</t>
+  </si>
+  <si>
+    <t>#measurement.isotopologue;#%type="13C"</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>#measurement.raw_intensity;#%type="spectrometer peak area"</t>
+  </si>
+  <si>
+    <t>Renormalized</t>
+  </si>
+  <si>
+    <t>#measurement.corrected_raw_intensity;#%type="natural abundance corrected peak area"</t>
+  </si>
+  <si>
+    <t>Quantified_uM_sequence_ratio</t>
+  </si>
+  <si>
+    <t>#measurement.concentration;#%units=uM;#%type="calculated from standard"</t>
+  </si>
+  <si>
+    <t>Amount_ProteinAdj_uMol_g_protein_SequenceBased</t>
+  </si>
+  <si>
+    <t>#measurement.normalized_concentration;#%type="protein normalized";#%units="uMol/g"</t>
+  </si>
+  <si>
+    <t>eval(float(#Renormalized#) / float(#protein_mg#))</t>
+  </si>
+  <si>
+    <t>#measurement.intensity;#%type="natural abundance corrected and protein normalized peak area";#%units="area/g"</t>
+  </si>
+  <si>
+    <t>C_isomers</t>
+  </si>
+  <si>
+    <t>Total.NA.Removed</t>
+  </si>
+  <si>
+    <t>Corrected</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Quantified_uM_ratio</t>
+  </si>
+  <si>
+    <t>reconstitution_volume_uL</t>
+  </si>
+  <si>
+    <t>injection_volume_uL</t>
+  </si>
+  <si>
+    <t>protein_mg</t>
+  </si>
+  <si>
+    <t>icms_split_ratio</t>
+  </si>
+  <si>
+    <t>Amount_ProteinAdj_uMol_g_protein_RatioBased</t>
+  </si>
+  <si>
+    <t>CommentQuantification</t>
+  </si>
+  <si>
+    <t>C5H8O4</t>
+  </si>
+  <si>
+    <t>01_A0_Colon_T03-2017_naive_170427_UKy_GCB_rep1-quench</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Compound: name of assigned metabolite, noStd means assigment was NOT verified with standard compound</t>
+  </si>
+  <si>
+    <t>#.sample.id</t>
+  </si>
+  <si>
+    <t>#.protocol.id=ICMS1</t>
+  </si>
+  <si>
+    <t>#add</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -312,7 +292,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
@@ -320,8 +300,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{834DA9FC-368E-1942-A812-7312F812EFB0}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{814015EB-E171-40CE-9CA8-0E90EE67241B}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -632,10 +612,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8067F3B6-BC85-4627-B925-1366E7FE6A62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -648,32 +628,32 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -682,11 +662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FFFD15-87D9-4AFC-82C0-CA4CE918806E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -696,195 +676,195 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -893,7 +873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A91633-EF22-4FB2-80F3-5ACFB40D0097}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -904,75 +884,75 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="N1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="O1" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="P1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="R1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="S1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E2">
         <v>7989221.8338638796</v>
@@ -990,7 +970,7 @@
         <v>7839899.2880199999</v>
       </c>
       <c r="J2" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1017,21 +997,21 @@
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E3">
         <v>289287.73343735602</v>
@@ -1049,7 +1029,7 @@
         <v>439597.55237699999</v>
       </c>
       <c r="J3" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1076,80 +1056,80 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="O5" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="Q5" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="R5" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="S5" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E6">
         <v>7989221.8338638796</v>
@@ -1167,7 +1147,7 @@
         <v>7839899.2880199999</v>
       </c>
       <c r="J6" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1194,21 +1174,21 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E7">
         <v>289287.73343735602</v>
@@ -1226,7 +1206,7 @@
         <v>439597.55237699999</v>
       </c>
       <c r="J7" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1253,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
